--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>referenceName</t>
   </si>
@@ -105,6 +105,15 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>Mk-PV</t>
+  </si>
+  <si>
+    <t>NS2-L</t>
+  </si>
+  <si>
+    <t>NS2-P</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +164,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1631">
+  <cellStyleXfs count="1639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1810,15 +1825,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1631">
+  <cellStyles count="1639">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2635,6 +2660,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -3449,6 +3478,10 @@
     <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3783,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1499"/>
+  <dimension ref="A1:E1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3815,546 +3848,598 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>130</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>466</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>969</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>114</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>2279</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>2399</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>4555</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>292</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>2280</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2388</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>4547</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>1982</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>2247</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>4403</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>206</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1978</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>2406</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>4349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>411</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>2495</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>2998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>5025</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>740</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>2920</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>2661</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>3302</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>3286</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>5307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>149</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>2260</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>2333</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>3019</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>3003</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>5120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>429</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>2579</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>2389</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>2949</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>2933</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>5044</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>321</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>2252</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>2203</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>4410</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>324</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>2012</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>2030</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>4210</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>347</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>2179</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>2195</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>4375</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>537</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>2420</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>2439</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>4637</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>548</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>2431</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>2450</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>4648</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>616</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>2631</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>2624</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>4969</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>306</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>1919</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>2268</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>5384</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>122</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>2140</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>2664</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>4427</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14" customHeight="1"/>
-    <row r="53" spans="2:2">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="58" spans="2:2" ht="16" customHeight="1"/>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="5">
+        <v>219</v>
+      </c>
+      <c r="D40" s="5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5">
+        <v>811</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2006</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2783</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="14" customHeight="1"/>
+    <row r="54" spans="2:2">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="59" spans="2:2" ht="16" customHeight="1"/>
     <row r="68" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
@@ -4390,7 +4475,6 @@
     <row r="76" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
-      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2"/>
@@ -4400,6 +4484,7 @@
     <row r="78" spans="1:4">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2"/>
@@ -4473,70 +4558,69 @@
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:3">
       <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
-      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2"/>
@@ -4551,6 +4635,7 @@
     <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2"/>
@@ -4672,8 +4757,9 @@
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="163" spans="5:5">
-      <c r="E163" s="1"/>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" s="1"/>
@@ -4690,9 +4776,8 @@
     <row r="168" spans="5:5">
       <c r="E168" s="1"/>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2"/>
-      <c r="B221" s="1"/>
+    <row r="169" spans="5:5">
+      <c r="E169" s="1"/>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2"/>
@@ -4788,10 +4873,10 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2"/>
+      <c r="B245" s="1"/>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2"/>
-      <c r="B246" s="1"/>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2"/>
@@ -4817,17 +4902,18 @@
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
     </row>
-    <row r="935" spans="3:3">
-      <c r="C935" s="2"/>
-    </row>
-    <row r="1071" spans="1:1">
-      <c r="A1071" s="2"/>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2"/>
+      <c r="B253" s="1"/>
+    </row>
+    <row r="936" spans="3:3">
+      <c r="C936" s="2"/>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" s="2"/>
     </row>
-    <row r="1197" spans="1:1">
-      <c r="A1197" s="2"/>
+    <row r="1073" spans="1:1">
+      <c r="A1073" s="2"/>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198" s="2"/>
@@ -4844,9 +4930,8 @@
     <row r="1202" spans="1:1">
       <c r="A1202" s="2"/>
     </row>
-    <row r="1247" spans="3:4">
-      <c r="C1247" s="2"/>
-      <c r="D1247" s="2"/>
+    <row r="1203" spans="1:1">
+      <c r="A1203" s="2"/>
     </row>
     <row r="1248" spans="3:4">
       <c r="C1248" s="2"/>
@@ -4856,8 +4941,9 @@
       <c r="C1249" s="2"/>
       <c r="D1249" s="2"/>
     </row>
-    <row r="1251" spans="1:4">
-      <c r="A1251" s="2"/>
+    <row r="1250" spans="1:4">
+      <c r="C1250" s="2"/>
+      <c r="D1250" s="2"/>
     </row>
     <row r="1252" spans="1:4">
       <c r="A1252" s="2"/>
@@ -4871,8 +4957,8 @@
     <row r="1255" spans="1:4">
       <c r="A1255" s="2"/>
     </row>
-    <row r="1274" spans="1:1">
-      <c r="A1274" s="2"/>
+    <row r="1256" spans="1:4">
+      <c r="A1256" s="2"/>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" s="2"/>
@@ -4892,8 +4978,8 @@
     <row r="1280" spans="1:1">
       <c r="A1280" s="2"/>
     </row>
-    <row r="1282" spans="1:1">
-      <c r="A1282" s="2"/>
+    <row r="1281" spans="1:1">
+      <c r="A1281" s="2"/>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283" s="2"/>
@@ -4910,8 +4996,8 @@
     <row r="1287" spans="1:1">
       <c r="A1287" s="2"/>
     </row>
-    <row r="1339" spans="1:1">
-      <c r="A1339" s="2"/>
+    <row r="1288" spans="1:1">
+      <c r="A1288" s="2"/>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="2"/>
@@ -4922,8 +5008,8 @@
     <row r="1342" spans="1:1">
       <c r="A1342" s="2"/>
     </row>
-    <row r="1344" spans="1:1">
-      <c r="A1344" s="2"/>
+    <row r="1343" spans="1:1">
+      <c r="A1343" s="2"/>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345" s="2"/>
@@ -4934,8 +5020,8 @@
     <row r="1347" spans="1:1">
       <c r="A1347" s="2"/>
     </row>
-    <row r="1382" spans="1:1">
-      <c r="A1382" s="2"/>
+    <row r="1348" spans="1:1">
+      <c r="A1348" s="2"/>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383" s="2"/>
@@ -4952,12 +5038,10 @@
     <row r="1387" spans="1:1">
       <c r="A1387" s="2"/>
     </row>
-    <row r="1429" spans="2:4">
-      <c r="C1429" s="2"/>
-      <c r="D1429" s="2"/>
+    <row r="1388" spans="1:1">
+      <c r="A1388" s="2"/>
     </row>
     <row r="1430" spans="2:4">
-      <c r="B1430" s="2"/>
       <c r="C1430" s="2"/>
       <c r="D1430" s="2"/>
     </row>
@@ -4972,11 +5056,13 @@
       <c r="D1432" s="2"/>
     </row>
     <row r="1433" spans="2:4">
+      <c r="B1433" s="2"/>
       <c r="C1433" s="2"/>
       <c r="D1433" s="2"/>
     </row>
-    <row r="1496" spans="1:1">
-      <c r="A1496" s="2"/>
+    <row r="1434" spans="2:4">
+      <c r="C1434" s="2"/>
+      <c r="D1434" s="2"/>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497" s="2"/>
@@ -4986,6 +5072,9 @@
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499" s="2"/>
+    </row>
+    <row r="1500" spans="1:1">
+      <c r="A1500" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -3818,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
